--- a/apst_mapping.xlsx
+++ b/apst_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PUBLIC_web\apst_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eatalay\Desktop\occupationdata.github.io\apst_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="674">
   <si>
     <t>Job Characteristic</t>
   </si>
@@ -618,9 +618,6 @@
     <t>psychology', 'psychological', 'sociology', 'anthropology'</t>
   </si>
   <si>
-    <t xml:space="preserve"> O*NET Knowledge Requirement 2C4f Sociology and Antrhopology </t>
-  </si>
-  <si>
     <t>sociology', 'anthropology',  'sociological', 'linguistics', 'psychology', 'economics', 'archaeology', 'anthropological','social science', 'political science'</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>archaeology', 'historical', 'anthropology', 'archaeological','social science'</t>
   </si>
   <si>
-    <t xml:space="preserve"> O*NET Knowledge Requirement 2C7e Philosopgy and Theology </t>
-  </si>
-  <si>
     <t>philosophy', 'theology','philosophical','religious','metaphysics','dogma','tenet','theological', 'ethics'</t>
   </si>
   <si>
@@ -891,9 +885,6 @@
     <t xml:space="preserve"> Tuition Reimbursement</t>
   </si>
   <si>
-    <t>Mentions of Words Per Minute</t>
-  </si>
-  <si>
     <t>manual labor','maintaining clean', 'maintain clean'</t>
   </si>
   <si>
@@ -1050,9 +1041,6 @@
     <t>Column C gives the set of phrases and words that come from our CBOW model.</t>
   </si>
   <si>
-    <t>Column D gives the set of phrases and words that come from the previous literature: Deming and Kahn (2017, "Firm Heterogeneity in Skill Demands"), Spitz-Oener (2006, Technical Change, Job Tasks, and Rising Educational Demands), and John et al. (2008, "Paradigm Shift to the Integrative Big Five Trait Taxonomy")</t>
-  </si>
-  <si>
     <t>Column B gives the set of phrases and words that we have come up with, by manually scanning through the text of our newspaper ads and on-line thesauruses.</t>
   </si>
   <si>
@@ -1722,10 +1710,343 @@
     <t>Subtract from the count any mentions of "medical insurance." Without this mentions of "medical" in the first column, would pick up mentions of "medical insurance"</t>
   </si>
   <si>
-    <t>In keeping with the definition of Spitz-Oener (2006),  the word in column C or D needs to be mentioned in conjunciton with either "machine" or "machines." See her Table 1.</t>
-  </si>
-  <si>
     <t>Subtract 1 for each mention of "data processing" or "word processing." In column B, the mention of "processing" refers to a non-producing form of processing.</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>Other: Mentions of Words Per Minute</t>
+  </si>
+  <si>
+    <t>Other: disability</t>
+  </si>
+  <si>
+    <t>Other: dental</t>
+  </si>
+  <si>
+    <t>Other: retirement</t>
+  </si>
+  <si>
+    <t>Other: life</t>
+  </si>
+  <si>
+    <t>Other: relocation</t>
+  </si>
+  <si>
+    <t>Other: vacation</t>
+  </si>
+  <si>
+    <t>Other: overtime</t>
+  </si>
+  <si>
+    <t>Other: travel</t>
+  </si>
+  <si>
+    <t>Other: Profit Sharing</t>
+  </si>
+  <si>
+    <t>Other: 401k</t>
+  </si>
+  <si>
+    <t>Other: Pension Plan</t>
+  </si>
+  <si>
+    <t>Column D gives the set of phrases and words that come from the previous literature: Deming and Kahn (2018, "Skill Requirements across Firms and Labor Markets: Evidence from Job Postings for Professionals"), Spitz-Oener (2006, Technical Change, Job Tasks, and Rising Educational Demands), and John et al. (2008, "Paradigm Shift to the Integrative Big Five Trait Taxonomy")</t>
+  </si>
+  <si>
+    <t>Other: Flexible Scheduling</t>
+  </si>
+  <si>
+    <t>Other: Part Time</t>
+  </si>
+  <si>
+    <t>Other: Full Time</t>
+  </si>
+  <si>
+    <t>Other: Sick Leave</t>
+  </si>
+  <si>
+    <t>Other: Attractive Person</t>
+  </si>
+  <si>
+    <t>Other: 830 to 430</t>
+  </si>
+  <si>
+    <t>Other: 845 to 430</t>
+  </si>
+  <si>
+    <t>Other: 930 to 430</t>
+  </si>
+  <si>
+    <t>Other: 930 to 530</t>
+  </si>
+  <si>
+    <t>Other: 8 to 3</t>
+  </si>
+  <si>
+    <t>Other: 8 to 4</t>
+  </si>
+  <si>
+    <t>Other: 9 to 3</t>
+  </si>
+  <si>
+    <t>Other: 9 to 4</t>
+  </si>
+  <si>
+    <t>Other: 9 to 5</t>
+  </si>
+  <si>
+    <t>Other: 10 to 6</t>
+  </si>
+  <si>
+    <t>Other: 7 to 3</t>
+  </si>
+  <si>
+    <t>Other: 7 to 4</t>
+  </si>
+  <si>
+    <t>Other: 9 to 530</t>
+  </si>
+  <si>
+    <t>Other: 2 to 4 days per week</t>
+  </si>
+  <si>
+    <t>Other: 3 to 4 days per week</t>
+  </si>
+  <si>
+    <t>Other: 4 days per week</t>
+  </si>
+  <si>
+    <t>Other: 5 days per week</t>
+  </si>
+  <si>
+    <t>Other: 40 hours per week</t>
+  </si>
+  <si>
+    <t>Other: 37 hours per week</t>
+  </si>
+  <si>
+    <t>Other: 35 hours per week</t>
+  </si>
+  <si>
+    <t>Other: 30 hours per week</t>
+  </si>
+  <si>
+    <t>Other: No weekends</t>
+  </si>
+  <si>
+    <t>Other: No Saturdays</t>
+  </si>
+  <si>
+    <t>Other: No Sundays</t>
+  </si>
+  <si>
+    <t>Other: No evenings</t>
+  </si>
+  <si>
+    <t>Other: work nights</t>
+  </si>
+  <si>
+    <t>Other: work weekends</t>
+  </si>
+  <si>
+    <t>Other: salary open</t>
+  </si>
+  <si>
+    <t>Other: salary history</t>
+  </si>
+  <si>
+    <t>Other: employer mentions location</t>
+  </si>
+  <si>
+    <t>Other: liberal benefits</t>
+  </si>
+  <si>
+    <t>Other: free parking</t>
+  </si>
+  <si>
+    <t>Other: free lunch</t>
+  </si>
+  <si>
+    <t>Other: employer mentions good working conditions</t>
+  </si>
+  <si>
+    <t>Other: opportunities for advancement</t>
+  </si>
+  <si>
+    <t>401k'</t>
+  </si>
+  <si>
+    <t>profit shar'</t>
+  </si>
+  <si>
+    <t>pension plan'</t>
+  </si>
+  <si>
+    <t>flexible ho', 'flexible hr', 'choose your ho'</t>
+  </si>
+  <si>
+    <t>part time'</t>
+  </si>
+  <si>
+    <t>full time'</t>
+  </si>
+  <si>
+    <t>sick leave', 'sick day'</t>
+  </si>
+  <si>
+    <t>disability insur'</t>
+  </si>
+  <si>
+    <t>medical plan', 'health insur'</t>
+  </si>
+  <si>
+    <t>dental plan', 'dental insur'</t>
+  </si>
+  <si>
+    <t>retirement plan'</t>
+  </si>
+  <si>
+    <t>life insur'</t>
+  </si>
+  <si>
+    <t>relocation assist','relocation allow'</t>
+  </si>
+  <si>
+    <t>opportunity for adv','opportunity to adv', 'rapid adv', 'advancement potent', 'growth potent'</t>
+  </si>
+  <si>
+    <t>working cond', 'air condition', 'pleasant office','pleasant cond','pleasant surr'</t>
+  </si>
+  <si>
+    <t>paid vacation', 'paid holiday'</t>
+  </si>
+  <si>
+    <t>free lunch', 'free hot lunch', 'free meal', 'employee cafeteria', 'low cost cafeteria'</t>
+  </si>
+  <si>
+    <t>free parking'</t>
+  </si>
+  <si>
+    <t>liberal ben', 'liberal emp', 'liberal comp', 'liberal fring'</t>
+  </si>
+  <si>
+    <t>conveniently locat', 'convenient locat'</t>
+  </si>
+  <si>
+    <t>salary requi', 'salary hist', 'salary desired', 'expected salary'</t>
+  </si>
+  <si>
+    <t>salary open'</t>
+  </si>
+  <si>
+    <t>work weekend', 'some weekend'</t>
+  </si>
+  <si>
+    <t>night work', 'work night', 'some night', 'some evening'</t>
+  </si>
+  <si>
+    <t>some overtime', 'work overtime'</t>
+  </si>
+  <si>
+    <t>willing to travel', 'some travel'</t>
+  </si>
+  <si>
+    <t>no weekend'</t>
+  </si>
+  <si>
+    <t>no saturday'</t>
+  </si>
+  <si>
+    <t>no sunday'</t>
+  </si>
+  <si>
+    <t>no evening'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 hour', ' 40 hr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37 hour', ' 37 hr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 hour', ' 35 hr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 hour', ' 30 hr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 day'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 day'</t>
+  </si>
+  <si>
+    <t>2 to 4 day', '2 4 day', '2-4 day'</t>
+  </si>
+  <si>
+    <t>3 to 4 day', '3 4 day', '3-4 day'</t>
+  </si>
+  <si>
+    <t>8 30 4 30', '8 30 to 4 30', '8:30-4:30', '8:30 to 4:30'</t>
+  </si>
+  <si>
+    <t>8 45 4 30', '8 45 to 4 30', '8:30-4:30', '8:30 to 4;30'</t>
+  </si>
+  <si>
+    <t>9 30 4 30', '9 30 to 4 30', '8:30-4:30', '8:30 to 4:30'</t>
+  </si>
+  <si>
+    <t>9 30 5 30', '9 30 to 5 30', '8:30-4:30', '8:30 to 4:30'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 to 3 ', ' 8 3 ', ' 8-3 '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 to 4 ', ' 8 4 ', ' 8-4 ' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 to 3 ', ' 9 3 ', ' 9-3 '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 to 4 ', ' 9 4 ', ' 9-4 '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 to 5 ', ' 9 5 ', ' 9-5 '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 to 6 ', ' 10 6 ', ' 10-6 '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 to 3 ', ' 7 3 ', ' 7-3 '                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 to 4 ', ' 7 4 ', ' 7-4 '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 to 5 30 ', ' 9 5 30 ',' 9 to 5:30 ', ' 9-5:30 '</t>
+  </si>
+  <si>
+    <t>attractive office', 'attractive opening', 'attractive compensation', 'attractive bonus', 'attractive opening'</t>
+  </si>
+  <si>
+    <t>attractive gal', 'attractive girl', 'attractive person', 'attractive man', 'attractive woman', 'attractive appearance'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O*NET Knowledge Requirement 2C4f Sociology and Anthropology </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O*NET Knowledge Requirement 2C7e Philosophy and Theology </t>
+  </si>
+  <si>
+    <t>Other: medical</t>
+  </si>
+  <si>
+    <t>Other: Attractive Job</t>
+  </si>
+  <si>
+    <t>In keeping with the definition of Spitz-Oener (2006),  the word in column C or D needs to be mentioned in conjunction with either "machine" or "machines." See her Table 1.</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +2113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1823,6 +2144,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2107,7 +2432,7 @@
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,32 +2442,32 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>341</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -2153,17 +2478,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
     <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.85546875" customWidth="1"/>
@@ -2177,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2194,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2"/>
@@ -2207,7 +2532,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3"/>
@@ -2220,7 +2545,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4"/>
@@ -2233,7 +2558,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5"/>
@@ -2246,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6"/>
@@ -2259,7 +2584,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7"/>
@@ -2272,7 +2597,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8"/>
@@ -2285,7 +2610,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9"/>
@@ -2298,7 +2623,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10"/>
@@ -2311,7 +2636,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11"/>
@@ -2324,7 +2649,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12"/>
@@ -2337,7 +2662,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13"/>
@@ -2350,7 +2675,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14"/>
@@ -2363,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15"/>
@@ -2376,7 +2701,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16"/>
@@ -2386,10 +2711,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17"/>
@@ -2402,7 +2727,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18"/>
@@ -2415,7 +2740,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19"/>
@@ -2428,7 +2753,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20"/>
@@ -2441,7 +2766,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21"/>
@@ -2454,7 +2779,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22"/>
@@ -2467,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23"/>
@@ -2480,7 +2805,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24"/>
@@ -2493,7 +2818,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25"/>
@@ -2506,7 +2831,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26"/>
@@ -2519,7 +2844,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27"/>
@@ -2532,7 +2857,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28"/>
@@ -2545,7 +2870,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29"/>
@@ -2558,7 +2883,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30"/>
@@ -2571,7 +2896,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31"/>
@@ -2584,7 +2909,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32"/>
@@ -2597,7 +2922,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33"/>
@@ -2607,10 +2932,10 @@
         <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34"/>
@@ -2623,7 +2948,7 @@
         <v>67</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35"/>
@@ -2636,7 +2961,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36"/>
@@ -2649,7 +2974,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37"/>
@@ -2662,7 +2987,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38"/>
@@ -2675,7 +3000,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39"/>
@@ -2688,7 +3013,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40"/>
@@ -2701,7 +3026,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41"/>
@@ -2714,7 +3039,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42"/>
@@ -2727,7 +3052,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2737,10 +3062,10 @@
         <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -2753,7 +3078,7 @@
         <v>86</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2763,10 +3088,10 @@
         <v>87</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -2776,10 +3101,10 @@
         <v>88</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2789,10 +3114,10 @@
         <v>89</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2802,10 +3127,10 @@
         <v>90</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2815,10 +3140,10 @@
         <v>91</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -2828,10 +3153,10 @@
         <v>92</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -2841,10 +3166,10 @@
         <v>93</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -2854,10 +3179,10 @@
         <v>94</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2867,10 +3192,10 @@
         <v>95</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -2880,10 +3205,10 @@
         <v>96</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2893,10 +3218,10 @@
         <v>97</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -2906,10 +3231,10 @@
         <v>98</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -2919,10 +3244,10 @@
         <v>99</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -2935,7 +3260,7 @@
         <v>101</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D59"/>
     </row>
@@ -2947,7 +3272,7 @@
         <v>103</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D60"/>
     </row>
@@ -2959,7 +3284,7 @@
         <v>105</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D61"/>
     </row>
@@ -2971,7 +3296,7 @@
         <v>107</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D62"/>
     </row>
@@ -2983,7 +3308,7 @@
         <v>109</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D63"/>
     </row>
@@ -2995,7 +3320,7 @@
         <v>111</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D64"/>
     </row>
@@ -3007,7 +3332,7 @@
         <v>113</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D65"/>
     </row>
@@ -3019,7 +3344,7 @@
         <v>115</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D66"/>
     </row>
@@ -3031,7 +3356,7 @@
         <v>117</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D67"/>
     </row>
@@ -3043,7 +3368,7 @@
         <v>119</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D68"/>
     </row>
@@ -3055,7 +3380,7 @@
         <v>121</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D69"/>
     </row>
@@ -3067,7 +3392,7 @@
         <v>123</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D70"/>
     </row>
@@ -3079,7 +3404,7 @@
         <v>125</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D71"/>
     </row>
@@ -3091,7 +3416,7 @@
         <v>127</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D72"/>
     </row>
@@ -3100,10 +3425,10 @@
         <v>128</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D73"/>
     </row>
@@ -3115,7 +3440,7 @@
         <v>130</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D74"/>
     </row>
@@ -3127,7 +3452,7 @@
         <v>132</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D75"/>
     </row>
@@ -3136,10 +3461,10 @@
         <v>133</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D76"/>
     </row>
@@ -3151,7 +3476,7 @@
         <v>135</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D77"/>
     </row>
@@ -3163,7 +3488,7 @@
         <v>137</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D78"/>
     </row>
@@ -3175,7 +3500,7 @@
         <v>139</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D79"/>
     </row>
@@ -3187,7 +3512,7 @@
         <v>141</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D80"/>
     </row>
@@ -3199,7 +3524,7 @@
         <v>143</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D81"/>
     </row>
@@ -3211,7 +3536,7 @@
         <v>145</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D82"/>
     </row>
@@ -3220,10 +3545,10 @@
         <v>146</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D83"/>
     </row>
@@ -3235,7 +3560,7 @@
         <v>148</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D84"/>
     </row>
@@ -3244,10 +3569,10 @@
         <v>149</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D85"/>
     </row>
@@ -3259,7 +3584,7 @@
         <v>151</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D86"/>
     </row>
@@ -3271,7 +3596,7 @@
         <v>153</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D87"/>
     </row>
@@ -3280,10 +3605,10 @@
         <v>154</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D88"/>
     </row>
@@ -3292,10 +3617,10 @@
         <v>155</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D89"/>
     </row>
@@ -3304,10 +3629,10 @@
         <v>156</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D90"/>
     </row>
@@ -3316,10 +3641,10 @@
         <v>157</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D91"/>
     </row>
@@ -3331,7 +3656,7 @@
         <v>159</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D92"/>
     </row>
@@ -3343,7 +3668,7 @@
         <v>161</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D93"/>
     </row>
@@ -3355,7 +3680,7 @@
         <v>163</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D94" s="5"/>
     </row>
@@ -3367,7 +3692,7 @@
         <v>165</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D95" s="5"/>
     </row>
@@ -3379,7 +3704,7 @@
         <v>167</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D96" s="5"/>
     </row>
@@ -3391,7 +3716,7 @@
         <v>169</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D97" s="5"/>
     </row>
@@ -3403,7 +3728,7 @@
         <v>171</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D98" s="5"/>
     </row>
@@ -3412,10 +3737,10 @@
         <v>172</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D99" s="5"/>
     </row>
@@ -3424,10 +3749,10 @@
         <v>173</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D100" s="5"/>
     </row>
@@ -3439,11 +3764,11 @@
         <v>175</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3454,7 +3779,7 @@
         <v>177</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D102" s="5"/>
     </row>
@@ -3466,7 +3791,7 @@
         <v>179</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D103" s="5"/>
     </row>
@@ -3478,7 +3803,7 @@
         <v>181</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D104" s="5"/>
     </row>
@@ -3490,7 +3815,7 @@
         <v>183</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D105" s="5"/>
     </row>
@@ -3502,7 +3827,7 @@
         <v>185</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D106" s="5"/>
     </row>
@@ -3514,7 +3839,7 @@
         <v>187</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D107" s="5"/>
     </row>
@@ -3526,7 +3851,7 @@
         <v>189</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D108" s="5"/>
     </row>
@@ -3538,7 +3863,7 @@
         <v>191</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D109" s="5"/>
     </row>
@@ -3550,7 +3875,7 @@
         <v>193</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D110" s="5"/>
     </row>
@@ -3559,10 +3884,10 @@
         <v>194</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D111" s="5"/>
     </row>
@@ -3574,1003 +3899,1003 @@
         <v>196</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:5" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="C113" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="C114" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:5" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="1:5" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="C115" s="8" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="C116" s="8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:5" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="C117" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:5" s="6" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="C118" s="8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:5" s="6" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="C119" s="8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="C120" s="8" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="C121" s="8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>215</v>
+        <v>670</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:5" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:5" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:5" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C148" s="5"/>
     </row>
     <row r="149" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C149" s="5"/>
     </row>
     <row r="150" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C150" s="5"/>
     </row>
     <row r="151" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C151" s="5"/>
     </row>
     <row r="152" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C152" s="5"/>
     </row>
     <row r="153" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C153" s="5"/>
     </row>
     <row r="154" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C154" s="5"/>
     </row>
     <row r="155" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C155" s="5"/>
     </row>
     <row r="156" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C157" s="5"/>
     </row>
     <row r="158" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C158" s="5"/>
     </row>
     <row r="159" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C159" s="5"/>
     </row>
     <row r="160" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C160" s="5"/>
     </row>
     <row r="161" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C161" s="5"/>
     </row>
     <row r="162" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C163" s="5"/>
     </row>
     <row r="164" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C167" s="5"/>
     </row>
     <row r="168" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
     </row>
     <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
     </row>
     <row r="195" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
     </row>
     <row r="196" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
     </row>
     <row r="197" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
     </row>
     <row r="198" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
     </row>
     <row r="199" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
     </row>
     <row r="200" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>565</v>
+        <v>673</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E201" s="6"/>
     </row>
     <row r="202" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E202" s="6"/>
     </row>
     <row r="203" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E203" s="6"/>
     </row>
     <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E204" s="6"/>
     </row>
     <row r="205" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E205" s="6"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -4578,10 +4903,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -4589,14 +4914,452 @@
     </row>
     <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>288</v>
+        <v>563</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="6"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="I245" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="I246" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E251" s="11"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="E252" s="11"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E253" s="11"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="E254" s="11"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E255" s="11"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="E256" s="11"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="E257" s="11"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E258" s="11"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>668</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A139:A185">
